--- a/data/pca/factorExposure/factorExposure_2018-12-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.08393796215710143</v>
+        <v>-0.05436721740857386</v>
       </c>
       <c r="C2">
-        <v>0.05209207947219186</v>
+        <v>0.03224320186890954</v>
       </c>
       <c r="D2">
-        <v>-0.06553544674690776</v>
+        <v>0.002428157362177027</v>
       </c>
       <c r="E2">
-        <v>-0.001040101796182264</v>
+        <v>-0.03603235854086985</v>
       </c>
       <c r="F2">
-        <v>-0.1189021831599936</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1166087428010856</v>
+      </c>
+      <c r="G2">
+        <v>-0.05445623747721375</v>
+      </c>
+      <c r="H2">
+        <v>0.06573748558321633</v>
+      </c>
+      <c r="I2">
+        <v>-0.1158630803163853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1651069783049089</v>
+        <v>-0.1263010224394428</v>
       </c>
       <c r="C3">
-        <v>-0.05780063388542702</v>
+        <v>0.06145838381977202</v>
       </c>
       <c r="D3">
-        <v>-0.1537279649185229</v>
+        <v>-0.03849740876332113</v>
       </c>
       <c r="E3">
-        <v>-0.06656765342920209</v>
+        <v>0.03092076766018415</v>
       </c>
       <c r="F3">
-        <v>-0.3876910826589607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3862634731461743</v>
+      </c>
+      <c r="G3">
+        <v>-0.2620684212496014</v>
+      </c>
+      <c r="H3">
+        <v>0.09959043712611632</v>
+      </c>
+      <c r="I3">
+        <v>-0.3921862421134422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07527667981446315</v>
+        <v>-0.05904750958140709</v>
       </c>
       <c r="C4">
-        <v>0.0148265455315684</v>
+        <v>0.03260256788645022</v>
       </c>
       <c r="D4">
-        <v>-0.06865189251337413</v>
+        <v>-0.03604673132070601</v>
       </c>
       <c r="E4">
-        <v>-0.05374588148731176</v>
+        <v>-0.04413820028717094</v>
       </c>
       <c r="F4">
-        <v>-0.06282748875394593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.0746992073331401</v>
+      </c>
+      <c r="G4">
+        <v>-0.02003761684260131</v>
+      </c>
+      <c r="H4">
+        <v>0.04623184283816913</v>
+      </c>
+      <c r="I4">
+        <v>-0.06896393666319159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.001285363153828399</v>
+        <v>-0.02786221887240772</v>
       </c>
       <c r="C6">
-        <v>-0.001793723498867677</v>
+        <v>0.01135561362580838</v>
       </c>
       <c r="D6">
-        <v>0.001164752542631963</v>
+        <v>-0.01106922987321462</v>
       </c>
       <c r="E6">
-        <v>0.0018253499285863</v>
+        <v>-0.009084320908137105</v>
       </c>
       <c r="F6">
-        <v>0.002429754560453929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01136597556275196</v>
+      </c>
+      <c r="G6">
+        <v>0.02003813313657953</v>
+      </c>
+      <c r="H6">
+        <v>-0.01276858791258587</v>
+      </c>
+      <c r="I6">
+        <v>-0.009857052429908416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03853802349514835</v>
+        <v>-0.03224982702471539</v>
       </c>
       <c r="C7">
-        <v>0.0196949957547723</v>
+        <v>-0.005016569020794338</v>
       </c>
       <c r="D7">
-        <v>-0.04939748694491443</v>
+        <v>-0.03697545641826903</v>
       </c>
       <c r="E7">
-        <v>-0.009552485119307152</v>
+        <v>-0.02894151925406812</v>
       </c>
       <c r="F7">
-        <v>-0.0857911249517567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05549159128967619</v>
+      </c>
+      <c r="G7">
+        <v>-0.05011431847474168</v>
+      </c>
+      <c r="H7">
+        <v>0.008247582430592471</v>
+      </c>
+      <c r="I7">
+        <v>-0.0457379179988176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0361870014067553</v>
+        <v>-0.01583676995188154</v>
       </c>
       <c r="C8">
-        <v>-0.007315059501327913</v>
+        <v>0.03043415991897339</v>
       </c>
       <c r="D8">
-        <v>-0.05676318459869133</v>
+        <v>-0.0310699539607664</v>
       </c>
       <c r="E8">
-        <v>-0.0494912471992348</v>
+        <v>-0.01807753412919163</v>
       </c>
       <c r="F8">
-        <v>-0.06498208840378251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07198869879293127</v>
+      </c>
+      <c r="G8">
+        <v>-0.0443991441532996</v>
+      </c>
+      <c r="H8">
+        <v>0.04031532381288158</v>
+      </c>
+      <c r="I8">
+        <v>-0.06601672346178193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06314743668516631</v>
+        <v>-0.05094978558149507</v>
       </c>
       <c r="C9">
-        <v>0.02341261190034648</v>
+        <v>0.02203095421497047</v>
       </c>
       <c r="D9">
-        <v>-0.05482607217457667</v>
+        <v>-0.03254988964619593</v>
       </c>
       <c r="E9">
-        <v>-0.06433350172429565</v>
+        <v>-0.03793233397010701</v>
       </c>
       <c r="F9">
-        <v>-0.05267793773795947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07953748419458939</v>
+      </c>
+      <c r="G9">
+        <v>-0.01961508133652918</v>
+      </c>
+      <c r="H9">
+        <v>0.04837423521579278</v>
+      </c>
+      <c r="I9">
+        <v>-0.04487026212060857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03729475333223936</v>
+        <v>-0.05587878746728017</v>
       </c>
       <c r="C10">
-        <v>0.06706096307269541</v>
+        <v>-0.1342373670610176</v>
       </c>
       <c r="D10">
-        <v>0.1281503637818049</v>
+        <v>0.09349123017304471</v>
       </c>
       <c r="E10">
-        <v>0.07291040048362989</v>
+        <v>0.04597497706677861</v>
       </c>
       <c r="F10">
-        <v>-0.06314356610380731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04982780078756004</v>
+      </c>
+      <c r="G10">
+        <v>-0.01695660235219588</v>
+      </c>
+      <c r="H10">
+        <v>0.03439548673391486</v>
+      </c>
+      <c r="I10">
+        <v>-0.02900719356874057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05066097569738406</v>
+        <v>-0.04266361281985308</v>
       </c>
       <c r="C11">
-        <v>-0.000155610098436851</v>
+        <v>0.0340795490680728</v>
       </c>
       <c r="D11">
-        <v>-0.0330978805192744</v>
+        <v>-0.01393794804393483</v>
       </c>
       <c r="E11">
-        <v>-0.009418284526004714</v>
+        <v>-0.0128590165148878</v>
       </c>
       <c r="F11">
-        <v>-0.04809266644173045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03911746598922078</v>
+      </c>
+      <c r="G11">
+        <v>0.0005084786525055256</v>
+      </c>
+      <c r="H11">
+        <v>0.015383966297839</v>
+      </c>
+      <c r="I11">
+        <v>-0.04133230825652751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0418222283027734</v>
+        <v>-0.0398459566752652</v>
       </c>
       <c r="C12">
-        <v>0.000266120954329355</v>
+        <v>0.02557260898138457</v>
       </c>
       <c r="D12">
-        <v>-0.02897475569251659</v>
+        <v>-0.02338339393266535</v>
       </c>
       <c r="E12">
-        <v>-0.02740650947386606</v>
+        <v>-0.01499875669791052</v>
       </c>
       <c r="F12">
-        <v>-0.03694886260083024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.0168293487560151</v>
+      </c>
+      <c r="G12">
+        <v>-0.006212295243252288</v>
+      </c>
+      <c r="H12">
+        <v>0.008153257352745481</v>
+      </c>
+      <c r="I12">
+        <v>-0.0293007276965108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04614300263561359</v>
+        <v>-0.03538150760127116</v>
       </c>
       <c r="C13">
-        <v>0.006895316512738937</v>
+        <v>0.0280092023563984</v>
       </c>
       <c r="D13">
-        <v>-0.05040579664183258</v>
+        <v>0.0008163236402633659</v>
       </c>
       <c r="E13">
-        <v>0.009669508658103005</v>
+        <v>-0.01043247162135001</v>
       </c>
       <c r="F13">
-        <v>-0.1101522902941454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.09461138356821641</v>
+      </c>
+      <c r="G13">
+        <v>-0.03318221257962479</v>
+      </c>
+      <c r="H13">
+        <v>0.03873151938310865</v>
+      </c>
+      <c r="I13">
+        <v>-0.08133111873755208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02297780723521899</v>
+        <v>-0.02012593843842051</v>
       </c>
       <c r="C14">
-        <v>0.01468971597649709</v>
+        <v>0.01203679146207961</v>
       </c>
       <c r="D14">
-        <v>-0.04436489533532962</v>
+        <v>-0.01350876339909635</v>
       </c>
       <c r="E14">
-        <v>-0.01875115757593372</v>
+        <v>-0.02954858300024947</v>
       </c>
       <c r="F14">
-        <v>-0.03281955166925624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03974957449289755</v>
+      </c>
+      <c r="G14">
+        <v>-0.05481257143979652</v>
+      </c>
+      <c r="H14">
+        <v>0.02274029063081409</v>
+      </c>
+      <c r="I14">
+        <v>-0.02443695258582006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04062670858691955</v>
+        <v>-0.03588156721583665</v>
       </c>
       <c r="C16">
-        <v>-0.006539670065246645</v>
+        <v>0.0305806929023331</v>
       </c>
       <c r="D16">
-        <v>-0.03002189732451107</v>
+        <v>-0.01840478714193585</v>
       </c>
       <c r="E16">
-        <v>-0.01300841557135883</v>
+        <v>-0.01017062658276134</v>
       </c>
       <c r="F16">
-        <v>-0.03790298040502503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03440262623588327</v>
+      </c>
+      <c r="G16">
+        <v>-0.006110807498515233</v>
+      </c>
+      <c r="H16">
+        <v>0.008657684054322351</v>
+      </c>
+      <c r="I16">
+        <v>-0.0404812378472655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0577785612471373</v>
+        <v>-0.04463318959705907</v>
       </c>
       <c r="C19">
-        <v>-0.01289657537832604</v>
+        <v>0.03870027165140365</v>
       </c>
       <c r="D19">
-        <v>-0.05354437122760032</v>
+        <v>-0.01816618632638509</v>
       </c>
       <c r="E19">
-        <v>-0.01649241439636339</v>
+        <v>-0.01680360048728067</v>
       </c>
       <c r="F19">
-        <v>-0.1005009409943623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09547246524430072</v>
+      </c>
+      <c r="G19">
+        <v>-0.04994697355345446</v>
+      </c>
+      <c r="H19">
+        <v>0.02830498095691897</v>
+      </c>
+      <c r="I19">
+        <v>-0.08657826472166662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01837866133637362</v>
+        <v>-0.01246241751496465</v>
       </c>
       <c r="C20">
-        <v>0.01248828643234347</v>
+        <v>0.01367330105580151</v>
       </c>
       <c r="D20">
-        <v>-0.0447353558982643</v>
+        <v>-0.01355072391150122</v>
       </c>
       <c r="E20">
-        <v>-0.03428974754380701</v>
+        <v>-0.02049544434106657</v>
       </c>
       <c r="F20">
-        <v>-0.07243513538849845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06184896312046035</v>
+      </c>
+      <c r="G20">
+        <v>-0.06251784313037528</v>
+      </c>
+      <c r="H20">
+        <v>0.01636780343111361</v>
+      </c>
+      <c r="I20">
+        <v>-0.07815776673672696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01933671798922754</v>
+        <v>-0.02631988563805396</v>
       </c>
       <c r="C21">
-        <v>-0.0151105181622893</v>
+        <v>0.0159471253171505</v>
       </c>
       <c r="D21">
-        <v>-0.04439313594668121</v>
+        <v>-0.02255219592593518</v>
       </c>
       <c r="E21">
-        <v>-0.01233321117842763</v>
+        <v>-0.005883520935563017</v>
       </c>
       <c r="F21">
-        <v>-0.08908789135497792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07197198372544909</v>
+      </c>
+      <c r="G21">
+        <v>-0.009121156823970333</v>
+      </c>
+      <c r="H21">
+        <v>0.05213643706983146</v>
+      </c>
+      <c r="I21">
+        <v>-0.0131719239651182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03948453167235495</v>
+        <v>-0.03454086032267699</v>
       </c>
       <c r="C24">
-        <v>-0.002412118432657225</v>
+        <v>0.02645553367006186</v>
       </c>
       <c r="D24">
-        <v>-0.02980622641094674</v>
+        <v>-0.01647825445596457</v>
       </c>
       <c r="E24">
-        <v>-0.01648338764217458</v>
+        <v>-0.01184837743727495</v>
       </c>
       <c r="F24">
-        <v>-0.04683213101491894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03693588117453664</v>
+      </c>
+      <c r="G24">
+        <v>-0.001277112048311961</v>
+      </c>
+      <c r="H24">
+        <v>0.009541582378590529</v>
+      </c>
+      <c r="I24">
+        <v>-0.04339738457938024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.04195957541646019</v>
+        <v>-0.04246327120299224</v>
       </c>
       <c r="C25">
-        <v>0.0009876033030500832</v>
+        <v>0.02593868716425014</v>
       </c>
       <c r="D25">
-        <v>-0.02953128842868056</v>
+        <v>-0.0151124201552056</v>
       </c>
       <c r="E25">
-        <v>-0.01779159781636622</v>
+        <v>-0.01323755612087111</v>
       </c>
       <c r="F25">
-        <v>-0.04730275016619807</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04629041120595601</v>
+      </c>
+      <c r="G25">
+        <v>0.006888854257163254</v>
+      </c>
+      <c r="H25">
+        <v>0.01426593401137239</v>
+      </c>
+      <c r="I25">
+        <v>-0.03730018149510236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01907275671772466</v>
+        <v>-0.01164710718246522</v>
       </c>
       <c r="C26">
-        <v>-0.006759566749900837</v>
+        <v>0.02455080686772403</v>
       </c>
       <c r="D26">
-        <v>-0.05452524579004465</v>
+        <v>-0.009322282335586062</v>
       </c>
       <c r="E26">
-        <v>0.001118625458528986</v>
+        <v>-0.003712049917502888</v>
       </c>
       <c r="F26">
-        <v>-0.03882041956350517</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04649515706706544</v>
+      </c>
+      <c r="G26">
+        <v>-0.03155068251177712</v>
+      </c>
+      <c r="H26">
+        <v>0.01479486362715694</v>
+      </c>
+      <c r="I26">
+        <v>-0.04063617641810883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.106183322358945</v>
+        <v>-0.0606769151340588</v>
       </c>
       <c r="C27">
-        <v>0.02788213710901471</v>
+        <v>0.01622735600737548</v>
       </c>
       <c r="D27">
-        <v>-0.04536216660011159</v>
+        <v>-0.01279652050172543</v>
       </c>
       <c r="E27">
-        <v>-0.04191451736384431</v>
+        <v>-0.02928613936404848</v>
       </c>
       <c r="F27">
-        <v>-0.06056461853718884</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.04775026953191695</v>
+      </c>
+      <c r="G27">
+        <v>-0.0348424500981267</v>
+      </c>
+      <c r="H27">
+        <v>0.02836641970731111</v>
+      </c>
+      <c r="I27">
+        <v>-0.02600899380003207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.05052928810488836</v>
+        <v>-0.08125772274785555</v>
       </c>
       <c r="C28">
-        <v>0.08548549781486066</v>
+        <v>-0.2061078714963806</v>
       </c>
       <c r="D28">
-        <v>0.212540478816919</v>
+        <v>0.1335658921336566</v>
       </c>
       <c r="E28">
-        <v>0.1019056426520628</v>
+        <v>0.06974903617434437</v>
       </c>
       <c r="F28">
-        <v>-0.03561676700135707</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0285564418409144</v>
+      </c>
+      <c r="G28">
+        <v>-0.03730480794060638</v>
+      </c>
+      <c r="H28">
+        <v>0.03171102393282029</v>
+      </c>
+      <c r="I28">
+        <v>-0.04623210847478895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02464163238275556</v>
+        <v>-0.02061899422708437</v>
       </c>
       <c r="C29">
-        <v>0.01261253780354835</v>
+        <v>0.01207882358102468</v>
       </c>
       <c r="D29">
-        <v>-0.04458817041360413</v>
+        <v>-0.01654225699704967</v>
       </c>
       <c r="E29">
-        <v>-0.03125130019845839</v>
+        <v>-0.03187180180663632</v>
       </c>
       <c r="F29">
-        <v>-0.02440841900264553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03633524638400611</v>
+      </c>
+      <c r="G29">
+        <v>-0.05679608122142744</v>
+      </c>
+      <c r="H29">
+        <v>0.02825054626377361</v>
+      </c>
+      <c r="I29">
+        <v>-0.007458551133833204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1014332809768464</v>
+        <v>-0.08262729878507988</v>
       </c>
       <c r="C30">
-        <v>0.03327716810499871</v>
+        <v>0.06959885867054068</v>
       </c>
       <c r="D30">
-        <v>-0.07095078460141797</v>
+        <v>0.00581863956276757</v>
       </c>
       <c r="E30">
-        <v>-0.02277333158294498</v>
+        <v>-0.04087458496657366</v>
       </c>
       <c r="F30">
-        <v>-0.1075063576362837</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1032991073257479</v>
+      </c>
+      <c r="G30">
+        <v>-0.01808126628061558</v>
+      </c>
+      <c r="H30">
+        <v>-0.0001064384195056431</v>
+      </c>
+      <c r="I30">
+        <v>-0.02915543723184391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06137298768219951</v>
+        <v>-0.05612391734806801</v>
       </c>
       <c r="C31">
-        <v>0.01457882359784709</v>
+        <v>0.01998291863765653</v>
       </c>
       <c r="D31">
-        <v>-0.03411949120405666</v>
+        <v>-0.0007239649659909205</v>
       </c>
       <c r="E31">
-        <v>0.02797956397895035</v>
+        <v>-0.02244797476809086</v>
       </c>
       <c r="F31">
-        <v>0.01579791742473238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.002461882226632716</v>
+      </c>
+      <c r="G31">
+        <v>-0.04084565916342752</v>
+      </c>
+      <c r="H31">
+        <v>0.04827945105401823</v>
+      </c>
+      <c r="I31">
+        <v>-0.01820117146261066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.04967293450170371</v>
+        <v>-0.02817080630964774</v>
       </c>
       <c r="C32">
-        <v>0.004322977142805314</v>
+        <v>0.02470320404344598</v>
       </c>
       <c r="D32">
-        <v>-0.0565660485105484</v>
+        <v>-0.03463595765419318</v>
       </c>
       <c r="E32">
-        <v>-0.03917037571309662</v>
+        <v>-0.04032884058249444</v>
       </c>
       <c r="F32">
-        <v>-0.08284556534043043</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07289682629520142</v>
+      </c>
+      <c r="G32">
+        <v>-0.03335736658547381</v>
+      </c>
+      <c r="H32">
+        <v>0.03193677325816495</v>
+      </c>
+      <c r="I32">
+        <v>-0.06274935417088202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.04951633586363218</v>
+        <v>-0.04352302847357734</v>
       </c>
       <c r="C33">
-        <v>-0.007735563703551973</v>
+        <v>0.05429802127518114</v>
       </c>
       <c r="D33">
-        <v>-0.0791973371262092</v>
+        <v>-0.01058265105901223</v>
       </c>
       <c r="E33">
-        <v>-0.01827566012429633</v>
+        <v>-0.01154805757671903</v>
       </c>
       <c r="F33">
-        <v>-0.06417579133153041</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07171969603090131</v>
+      </c>
+      <c r="G33">
+        <v>-0.0413722921665861</v>
+      </c>
+      <c r="H33">
+        <v>0.04336574809693531</v>
+      </c>
+      <c r="I33">
+        <v>-0.04533528777613263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04012048810514592</v>
+        <v>-0.03694099740870439</v>
       </c>
       <c r="C34">
-        <v>0.004714389217461435</v>
+        <v>0.0274179627510744</v>
       </c>
       <c r="D34">
-        <v>-0.03475353559496032</v>
+        <v>-0.02268027629041958</v>
       </c>
       <c r="E34">
-        <v>-0.01901353606438435</v>
+        <v>-0.02166362400138564</v>
       </c>
       <c r="F34">
-        <v>-0.03941370363826645</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03808561029218211</v>
+      </c>
+      <c r="G34">
+        <v>-0.0004397512892949772</v>
+      </c>
+      <c r="H34">
+        <v>0.01198987780759033</v>
+      </c>
+      <c r="I34">
+        <v>-0.04161182043593095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01323496857441046</v>
+        <v>-0.015865471011555</v>
       </c>
       <c r="C36">
-        <v>0.0106878422548171</v>
+        <v>-0.0003005347855233806</v>
       </c>
       <c r="D36">
-        <v>-0.0121840563393191</v>
+        <v>-0.003479667480909369</v>
       </c>
       <c r="E36">
-        <v>-0.01082064228650879</v>
+        <v>-0.01033430852344626</v>
       </c>
       <c r="F36">
-        <v>-0.02387263339288817</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02823519472731192</v>
+      </c>
+      <c r="G36">
+        <v>-0.0307291267783279</v>
+      </c>
+      <c r="H36">
+        <v>0.02937327894551327</v>
+      </c>
+      <c r="I36">
+        <v>0.005604483865038498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.02583402993643049</v>
+        <v>-0.02641801377341969</v>
       </c>
       <c r="C38">
-        <v>0.006524083786014459</v>
+        <v>0.002582977592821827</v>
       </c>
       <c r="D38">
-        <v>0.004579222559123638</v>
+        <v>-0.005998181628126265</v>
       </c>
       <c r="E38">
-        <v>-0.009934018703525286</v>
+        <v>-0.004128970511167132</v>
       </c>
       <c r="F38">
-        <v>-0.01609336536359477</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04391911001490697</v>
+      </c>
+      <c r="G38">
+        <v>-0.01274007160821149</v>
+      </c>
+      <c r="H38">
+        <v>0.03426300536645337</v>
+      </c>
+      <c r="I38">
+        <v>0.0003831722648182595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.06158526492417093</v>
+        <v>-0.04661816147440056</v>
       </c>
       <c r="C39">
-        <v>0.006461567042350208</v>
+        <v>0.04805093898010909</v>
       </c>
       <c r="D39">
-        <v>-0.04864312636524647</v>
+        <v>-0.02262820119880889</v>
       </c>
       <c r="E39">
-        <v>-0.006683468472866652</v>
+        <v>-0.02682147767536638</v>
       </c>
       <c r="F39">
-        <v>-0.03707684867897575</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05583434868473018</v>
+      </c>
+      <c r="G39">
+        <v>0.005862114910951207</v>
+      </c>
+      <c r="H39">
+        <v>0.02499202434655569</v>
+      </c>
+      <c r="I39">
+        <v>-0.02447191980828659</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.05484517412600151</v>
+        <v>-0.04538709406813079</v>
       </c>
       <c r="C40">
-        <v>0.02360946284427848</v>
+        <v>0.04640212495670462</v>
       </c>
       <c r="D40">
-        <v>-0.07418405952364784</v>
+        <v>-0.001867418824382629</v>
       </c>
       <c r="E40">
-        <v>0.01107898154879302</v>
+        <v>-0.02889151573015545</v>
       </c>
       <c r="F40">
-        <v>-0.08897913435271082</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.0824929066590229</v>
+      </c>
+      <c r="G40">
+        <v>-0.03219721264062054</v>
+      </c>
+      <c r="H40">
+        <v>0.03538823052716717</v>
+      </c>
+      <c r="I40">
+        <v>-0.1157662921294115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.007949811398097766</v>
+        <v>0.0002426188895710444</v>
       </c>
       <c r="C41">
-        <v>0.001906793688850319</v>
+        <v>0.002733482022625331</v>
       </c>
       <c r="D41">
-        <v>-0.02793980179623505</v>
+        <v>-0.0003449110619178214</v>
       </c>
       <c r="E41">
-        <v>-0.01071245623234551</v>
+        <v>-0.00835556249535214</v>
       </c>
       <c r="F41">
-        <v>0.01282146098762848</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.007279765056418951</v>
+      </c>
+      <c r="G41">
+        <v>-0.03996902068458048</v>
+      </c>
+      <c r="H41">
+        <v>0.04219287829193371</v>
+      </c>
+      <c r="I41">
+        <v>-0.003400410980384167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2477623356715848</v>
+        <v>-0.20111935816135</v>
       </c>
       <c r="C42">
-        <v>-0.911553993292894</v>
+        <v>0.3146495726902353</v>
       </c>
       <c r="D42">
-        <v>0.1415797355881968</v>
+        <v>-0.1709507367873108</v>
       </c>
       <c r="E42">
-        <v>0.2222886350556887</v>
+        <v>0.8786532699355722</v>
       </c>
       <c r="F42">
-        <v>0.03309616829294222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.16648520446815</v>
+      </c>
+      <c r="G42">
+        <v>-0.004191703924804897</v>
+      </c>
+      <c r="H42">
+        <v>-0.01022372367839629</v>
+      </c>
+      <c r="I42">
+        <v>-0.03483325651669848</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.00760779951222141</v>
+        <v>-0.002375938038814521</v>
       </c>
       <c r="C43">
-        <v>0.0007800935689705243</v>
+        <v>0.005618369024487354</v>
       </c>
       <c r="D43">
-        <v>-0.02974739981327215</v>
+        <v>0.0008361263394792716</v>
       </c>
       <c r="E43">
-        <v>-0.006365731162870058</v>
+        <v>-0.006532545955784189</v>
       </c>
       <c r="F43">
-        <v>-0.01891862734917587</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01888140788931648</v>
+      </c>
+      <c r="G43">
+        <v>-0.03282962040073161</v>
+      </c>
+      <c r="H43">
+        <v>0.02273547519268275</v>
+      </c>
+      <c r="I43">
+        <v>-0.01358949946052773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0275183351685188</v>
+        <v>-0.01951511585102061</v>
       </c>
       <c r="C44">
-        <v>0.001542014948196775</v>
+        <v>0.02809907187695292</v>
       </c>
       <c r="D44">
-        <v>-0.07161320156443646</v>
+        <v>-0.01836130738316907</v>
       </c>
       <c r="E44">
-        <v>-0.02548941238503608</v>
+        <v>-0.01494505349054863</v>
       </c>
       <c r="F44">
-        <v>-0.1147948463698742</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1175434397346529</v>
+      </c>
+      <c r="G44">
+        <v>-0.08891030690785179</v>
+      </c>
+      <c r="H44">
+        <v>0.06497733112450088</v>
+      </c>
+      <c r="I44">
+        <v>-0.06402130244613535</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02896015490976759</v>
+        <v>-0.02086661227800305</v>
       </c>
       <c r="C46">
-        <v>0.006725406269069408</v>
+        <v>0.0292951328422904</v>
       </c>
       <c r="D46">
-        <v>-0.0523494665322444</v>
+        <v>-0.01183877863536759</v>
       </c>
       <c r="E46">
-        <v>-0.01503449394350309</v>
+        <v>-0.03308337647059832</v>
       </c>
       <c r="F46">
-        <v>-0.01439113216620797</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04767181608324756</v>
+      </c>
+      <c r="G46">
+        <v>-0.05825404675298326</v>
+      </c>
+      <c r="H46">
+        <v>0.02942744955168657</v>
+      </c>
+      <c r="I46">
+        <v>-0.01025455471636191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08673580482786084</v>
+        <v>-0.08165331567946933</v>
       </c>
       <c r="C47">
-        <v>0.01842995088463381</v>
+        <v>0.02455302590502594</v>
       </c>
       <c r="D47">
-        <v>-0.03952974263843266</v>
+        <v>-0.01079051241110711</v>
       </c>
       <c r="E47">
-        <v>-0.01469661985724529</v>
+        <v>-0.03195609055394846</v>
       </c>
       <c r="F47">
-        <v>0.01960817504233224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01852363132443053</v>
+      </c>
+      <c r="G47">
+        <v>-0.06639771432719839</v>
+      </c>
+      <c r="H47">
+        <v>0.04000410573544269</v>
+      </c>
+      <c r="I47">
+        <v>-0.03042416650418652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01289825042375889</v>
+        <v>-0.01919208233019376</v>
       </c>
       <c r="C48">
-        <v>0.006212890503004353</v>
+        <v>0.01037960978145162</v>
       </c>
       <c r="D48">
-        <v>-0.03407888522761932</v>
+        <v>-0.006621892231529908</v>
       </c>
       <c r="E48">
-        <v>-0.01277110511769603</v>
+        <v>-0.0149005976919048</v>
       </c>
       <c r="F48">
-        <v>-0.02625402097538633</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0296391793473793</v>
+      </c>
+      <c r="G48">
+        <v>-0.02303317575562216</v>
+      </c>
+      <c r="H48">
+        <v>0.02166355024286309</v>
+      </c>
+      <c r="I48">
+        <v>-0.01313660020547109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08614455239671812</v>
+        <v>-0.08198469573897244</v>
       </c>
       <c r="C50">
-        <v>0.004652274184335337</v>
+        <v>0.03007600570905862</v>
       </c>
       <c r="D50">
-        <v>-0.04091169986498353</v>
+        <v>-0.02818912154536615</v>
       </c>
       <c r="E50">
-        <v>0.004160844015564751</v>
+        <v>-0.02495010598557814</v>
       </c>
       <c r="F50">
-        <v>0.01210081457507627</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.005045536731008715</v>
+      </c>
+      <c r="G50">
+        <v>-0.04691084915757838</v>
+      </c>
+      <c r="H50">
+        <v>-0.001583373959628956</v>
+      </c>
+      <c r="I50">
+        <v>0.004302878775216829</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05435318290693733</v>
+        <v>-0.03849087069127799</v>
       </c>
       <c r="C51">
-        <v>0.01875733612727028</v>
+        <v>0.003477268150022446</v>
       </c>
       <c r="D51">
-        <v>-0.0328081967405652</v>
+        <v>0.01224100267211053</v>
       </c>
       <c r="E51">
-        <v>0.02653006313160511</v>
+        <v>-0.01053508928113264</v>
       </c>
       <c r="F51">
-        <v>-0.05861990259374421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.08319129403272608</v>
+      </c>
+      <c r="G51">
+        <v>-0.06198305605802485</v>
+      </c>
+      <c r="H51">
+        <v>0.06137646195785033</v>
+      </c>
+      <c r="I51">
+        <v>-0.04633578557552105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1233393214928215</v>
+        <v>-0.1130265406690897</v>
       </c>
       <c r="C53">
-        <v>0.02723294030268355</v>
+        <v>0.04333017642447308</v>
       </c>
       <c r="D53">
-        <v>-0.06111685602773828</v>
+        <v>-0.02030093790104233</v>
       </c>
       <c r="E53">
-        <v>-0.001822225786568924</v>
+        <v>-0.058655591120665</v>
       </c>
       <c r="F53">
-        <v>0.07453543365751565</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05832541052592534</v>
+      </c>
+      <c r="G53">
+        <v>-0.0291152185054795</v>
+      </c>
+      <c r="H53">
+        <v>0.02513106732308619</v>
+      </c>
+      <c r="I53">
+        <v>-0.02796970060077808</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02241630681500334</v>
+        <v>-0.0248267751618388</v>
       </c>
       <c r="C54">
-        <v>0.02036123546550663</v>
+        <v>0.0004848523862940123</v>
       </c>
       <c r="D54">
-        <v>-0.03078564008906099</v>
+        <v>-0.004794650902913043</v>
       </c>
       <c r="E54">
-        <v>-0.01851964181193247</v>
+        <v>-0.03049462309148579</v>
       </c>
       <c r="F54">
-        <v>-0.0338037309198578</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03551795238096637</v>
+      </c>
+      <c r="G54">
+        <v>-0.05414975166041665</v>
+      </c>
+      <c r="H54">
+        <v>0.03880520155741964</v>
+      </c>
+      <c r="I54">
+        <v>-0.002689877977083894</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1051919133780175</v>
+        <v>-0.09297027041385782</v>
       </c>
       <c r="C55">
-        <v>0.01940738508751427</v>
+        <v>0.03228889838413321</v>
       </c>
       <c r="D55">
-        <v>-0.01936778645033085</v>
+        <v>-0.03333333836992725</v>
       </c>
       <c r="E55">
-        <v>-0.04018518145183612</v>
+        <v>-0.04352015778392433</v>
       </c>
       <c r="F55">
-        <v>0.02695708292734204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04190659748127073</v>
+      </c>
+      <c r="G55">
+        <v>-0.04739045060933656</v>
+      </c>
+      <c r="H55">
+        <v>-0.006298123577808402</v>
+      </c>
+      <c r="I55">
+        <v>-0.009229474198461492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1622951819882786</v>
+        <v>-0.1554634950398742</v>
       </c>
       <c r="C56">
-        <v>0.0771043983727205</v>
+        <v>0.0356306432385526</v>
       </c>
       <c r="D56">
-        <v>-0.03713686529525945</v>
+        <v>-0.01872246014264119</v>
       </c>
       <c r="E56">
-        <v>-0.02067092471279575</v>
+        <v>-0.09434656633396143</v>
       </c>
       <c r="F56">
-        <v>0.1095024937228566</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1013856133717082</v>
+      </c>
+      <c r="G56">
+        <v>0.005895844429907663</v>
+      </c>
+      <c r="H56">
+        <v>-0.02427770467622976</v>
+      </c>
+      <c r="I56">
+        <v>-0.02529008732692925</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06504005553291853</v>
+        <v>-0.05452295732440344</v>
       </c>
       <c r="C57">
-        <v>0.01209535243654353</v>
+        <v>0.03533542465293745</v>
       </c>
       <c r="D57">
-        <v>-0.0543899964155458</v>
+        <v>-0.0002778384033191777</v>
       </c>
       <c r="E57">
-        <v>0.008463627183252387</v>
+        <v>-0.007882999131852621</v>
       </c>
       <c r="F57">
-        <v>-0.0598978414296035</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06224082835000982</v>
+      </c>
+      <c r="G57">
+        <v>-0.01759872764664851</v>
+      </c>
+      <c r="H57">
+        <v>0.02073298093641097</v>
+      </c>
+      <c r="I57">
+        <v>-0.03645451089179476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.188759860127091</v>
+        <v>-0.1906245867405706</v>
       </c>
       <c r="C58">
-        <v>-0.001140079895557183</v>
+        <v>0.1602357963475554</v>
       </c>
       <c r="D58">
-        <v>-0.1242562253855386</v>
+        <v>0.01182207893385153</v>
       </c>
       <c r="E58">
-        <v>-0.01076819591996896</v>
+        <v>0.01643952223496708</v>
       </c>
       <c r="F58">
-        <v>-0.2446744587674662</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3806117621832148</v>
+      </c>
+      <c r="G58">
+        <v>-0.3681925239148453</v>
+      </c>
+      <c r="H58">
+        <v>-0.2577490168898356</v>
+      </c>
+      <c r="I58">
+        <v>0.7184992655123233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.06003525671140732</v>
+        <v>-0.08975261726877058</v>
       </c>
       <c r="C59">
-        <v>0.101957182317395</v>
+        <v>-0.1664011227313829</v>
       </c>
       <c r="D59">
-        <v>0.1463929495691178</v>
+        <v>0.127068158026948</v>
       </c>
       <c r="E59">
-        <v>0.06396024286716494</v>
+        <v>0.0288677547659635</v>
       </c>
       <c r="F59">
-        <v>-0.04316244018432631</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.05471320747616398</v>
+      </c>
+      <c r="G59">
+        <v>-0.0077949379820473</v>
+      </c>
+      <c r="H59">
+        <v>0.02347422557388036</v>
+      </c>
+      <c r="I59">
+        <v>-0.01515509039773099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1854857998731926</v>
+        <v>-0.2008018106858736</v>
       </c>
       <c r="C60">
-        <v>0.05682603150121124</v>
+        <v>0.006384854719062818</v>
       </c>
       <c r="D60">
-        <v>0.003446338708532155</v>
+        <v>0.06307184766584926</v>
       </c>
       <c r="E60">
-        <v>0.08054217018571345</v>
+        <v>-0.01556581081418238</v>
       </c>
       <c r="F60">
-        <v>-0.1403350173165786</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1848007364645824</v>
+      </c>
+      <c r="G60">
+        <v>0.3535163911600564</v>
+      </c>
+      <c r="H60">
+        <v>-0.03601754341724651</v>
+      </c>
+      <c r="I60">
+        <v>-0.03332302471059928</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03142043073481585</v>
+        <v>-0.03475628843768593</v>
       </c>
       <c r="C61">
-        <v>0.002380471288477088</v>
+        <v>0.03058562693630682</v>
       </c>
       <c r="D61">
-        <v>-0.0259423683215003</v>
+        <v>-0.01983551645716523</v>
       </c>
       <c r="E61">
-        <v>-0.01832548165550152</v>
+        <v>-0.01884264107782703</v>
       </c>
       <c r="F61">
-        <v>-0.03824049903506281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03964011682839121</v>
+      </c>
+      <c r="G61">
+        <v>0.01614082992489555</v>
+      </c>
+      <c r="H61">
+        <v>0.01339040935049364</v>
+      </c>
+      <c r="I61">
+        <v>-0.01156178097113943</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.02852100085753641</v>
+        <v>-0.02480284327460541</v>
       </c>
       <c r="C63">
-        <v>0.01160587844500769</v>
+        <v>0.02046148760300354</v>
       </c>
       <c r="D63">
-        <v>-0.03971330802754985</v>
+        <v>-0.01133152640905511</v>
       </c>
       <c r="E63">
-        <v>-0.01306473189218089</v>
+        <v>-0.01996456751384453</v>
       </c>
       <c r="F63">
-        <v>-0.04380641955009409</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03023576262472003</v>
+      </c>
+      <c r="G63">
+        <v>-0.04862449150223042</v>
+      </c>
+      <c r="H63">
+        <v>0.01231638733654507</v>
+      </c>
+      <c r="I63">
+        <v>-0.02978117778585587</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0530549023913006</v>
+        <v>-0.05237831174831156</v>
       </c>
       <c r="C64">
-        <v>0.007772104884939597</v>
+        <v>0.02980560997416423</v>
       </c>
       <c r="D64">
-        <v>-0.05341848541199772</v>
+        <v>-0.03076554990350773</v>
       </c>
       <c r="E64">
-        <v>-0.05510594306545518</v>
+        <v>-0.02749317179421167</v>
       </c>
       <c r="F64">
-        <v>-0.03860358585866168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04243585976396218</v>
+      </c>
+      <c r="G64">
+        <v>-0.02434837394999713</v>
+      </c>
+      <c r="H64">
+        <v>0.06667593176364943</v>
+      </c>
+      <c r="I64">
+        <v>-0.05446190022179335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.001232967322870957</v>
+        <v>-0.03132792718155382</v>
       </c>
       <c r="C65">
-        <v>-0.00272258750183547</v>
+        <v>0.01148277266047386</v>
       </c>
       <c r="D65">
-        <v>0.001415733474485951</v>
+        <v>-0.01130134789314076</v>
       </c>
       <c r="E65">
-        <v>0.002001576878854648</v>
+        <v>-0.009165869084156383</v>
       </c>
       <c r="F65">
-        <v>0.002166396653146942</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.008396284587982404</v>
+      </c>
+      <c r="G65">
+        <v>0.02446571311829478</v>
+      </c>
+      <c r="H65">
+        <v>-0.01045392497782474</v>
+      </c>
+      <c r="I65">
+        <v>-0.0099045619118563</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.06072464392750074</v>
+        <v>-0.05589375356027674</v>
       </c>
       <c r="C66">
-        <v>0.02155848279049504</v>
+        <v>0.05840010495774722</v>
       </c>
       <c r="D66">
-        <v>-0.06978008210240121</v>
+        <v>-0.01980738211330178</v>
       </c>
       <c r="E66">
-        <v>-0.03014907687781006</v>
+        <v>-0.0528745887442601</v>
       </c>
       <c r="F66">
-        <v>-0.07681277145398001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06984943537236239</v>
+      </c>
+      <c r="G66">
+        <v>0.01331275228218839</v>
+      </c>
+      <c r="H66">
+        <v>0.0106231862581218</v>
+      </c>
+      <c r="I66">
+        <v>-0.06508564671621066</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0445733074353071</v>
+        <v>-0.04470272736221543</v>
       </c>
       <c r="C67">
-        <v>0.01304714989414723</v>
+        <v>-0.003992629035645696</v>
       </c>
       <c r="D67">
-        <v>0.0180688050271325</v>
+        <v>0.003487384724101073</v>
       </c>
       <c r="E67">
-        <v>0.003535008657647232</v>
+        <v>-0.005524041126953905</v>
       </c>
       <c r="F67">
-        <v>-0.0213394920242415</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03498966056325946</v>
+      </c>
+      <c r="G67">
+        <v>0.01227878736352902</v>
+      </c>
+      <c r="H67">
+        <v>0.04530313627283589</v>
+      </c>
+      <c r="I67">
+        <v>0.004435726151595593</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.06857904429568773</v>
+        <v>-0.08692915931714595</v>
       </c>
       <c r="C68">
-        <v>0.0921670926693763</v>
+        <v>-0.1912696434121596</v>
       </c>
       <c r="D68">
-        <v>0.2077117800584294</v>
+        <v>0.1368826648060738</v>
       </c>
       <c r="E68">
-        <v>0.09239339828026384</v>
+        <v>0.05682430087884858</v>
       </c>
       <c r="F68">
-        <v>-0.01911794588402787</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.008260023840886439</v>
+      </c>
+      <c r="G68">
+        <v>-0.04231019381259026</v>
+      </c>
+      <c r="H68">
+        <v>-0.01290614185742406</v>
+      </c>
+      <c r="I68">
+        <v>0.01863720169564356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07334507709032489</v>
+        <v>-0.06736570381872159</v>
       </c>
       <c r="C69">
-        <v>0.02023642812146228</v>
+        <v>0.02140583438474209</v>
       </c>
       <c r="D69">
-        <v>-0.02191986528233883</v>
+        <v>-0.005386693318351708</v>
       </c>
       <c r="E69">
-        <v>0.0002507769882645629</v>
+        <v>-0.03253229439030653</v>
       </c>
       <c r="F69">
-        <v>0.006380222771526831</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.004362603609536706</v>
+      </c>
+      <c r="G69">
+        <v>-0.04318180961470156</v>
+      </c>
+      <c r="H69">
+        <v>0.03193979757193541</v>
+      </c>
+      <c r="I69">
+        <v>-0.02398567387261814</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.07130725516645971</v>
+        <v>-0.08696885264888593</v>
       </c>
       <c r="C71">
-        <v>0.1130616813675419</v>
+        <v>-0.2053193768179639</v>
       </c>
       <c r="D71">
-        <v>0.2471161323487842</v>
+        <v>0.1530040034459535</v>
       </c>
       <c r="E71">
-        <v>0.1519449765412859</v>
+        <v>0.07445814031133352</v>
       </c>
       <c r="F71">
-        <v>-0.06507845788776331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03717155701481698</v>
+      </c>
+      <c r="G71">
+        <v>-0.02498386221401122</v>
+      </c>
+      <c r="H71">
+        <v>0.01293801059111804</v>
+      </c>
+      <c r="I71">
+        <v>-0.005170255925339568</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1262678403775257</v>
+        <v>-0.1324348948494264</v>
       </c>
       <c r="C72">
-        <v>0.07045724039447715</v>
+        <v>0.05159931339284961</v>
       </c>
       <c r="D72">
-        <v>-0.04227198177576388</v>
+        <v>-0.01204023936384421</v>
       </c>
       <c r="E72">
-        <v>-0.01871497133193063</v>
+        <v>-0.09087156250358072</v>
       </c>
       <c r="F72">
-        <v>-0.08331800654103158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.09917490224503919</v>
+      </c>
+      <c r="G72">
+        <v>0.09389232674361771</v>
+      </c>
+      <c r="H72">
+        <v>-0.01135893211687349</v>
+      </c>
+      <c r="I72">
+        <v>0.1378673075565619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2862950917190447</v>
+        <v>-0.2860616425690217</v>
       </c>
       <c r="C73">
-        <v>0.0703624514448738</v>
+        <v>0.02979555588032634</v>
       </c>
       <c r="D73">
-        <v>0.04691487926783761</v>
+        <v>0.09330540387983449</v>
       </c>
       <c r="E73">
-        <v>0.1114770275643595</v>
+        <v>0.02680758154661131</v>
       </c>
       <c r="F73">
-        <v>-0.2411040121425055</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2631395107019562</v>
+      </c>
+      <c r="G73">
+        <v>0.5303473886378378</v>
+      </c>
+      <c r="H73">
+        <v>-0.10569178820489</v>
+      </c>
+      <c r="I73">
+        <v>0.01029257803757219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1443060918380683</v>
+        <v>-0.1388551560232385</v>
       </c>
       <c r="C74">
-        <v>0.02778375888784085</v>
+        <v>0.0510209811641592</v>
       </c>
       <c r="D74">
-        <v>-0.03896564088844544</v>
+        <v>-0.02130112658683218</v>
       </c>
       <c r="E74">
-        <v>-0.007021989044676351</v>
+        <v>-0.05951071162713575</v>
       </c>
       <c r="F74">
-        <v>0.06130707634567034</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.08164226049185372</v>
+      </c>
+      <c r="G74">
+        <v>0.007603066716538527</v>
+      </c>
+      <c r="H74">
+        <v>-0.01851990895668919</v>
+      </c>
+      <c r="I74">
+        <v>-0.07073632869685648</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2265046260740372</v>
+        <v>-0.2412400889805418</v>
       </c>
       <c r="C75">
-        <v>0.07904838410968319</v>
+        <v>0.06434846653438149</v>
       </c>
       <c r="D75">
-        <v>-0.07306338189148205</v>
+        <v>-0.003702895866237802</v>
       </c>
       <c r="E75">
-        <v>0.01048200195033194</v>
+        <v>-0.1256675358189679</v>
       </c>
       <c r="F75">
-        <v>0.1409678923990355</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1476722625938902</v>
+      </c>
+      <c r="G75">
+        <v>-0.01727572381666278</v>
+      </c>
+      <c r="H75">
+        <v>0.004115999836413162</v>
+      </c>
+      <c r="I75">
+        <v>-0.01490928083836339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2609831813756319</v>
+        <v>-0.256132160939715</v>
       </c>
       <c r="C76">
-        <v>0.09906784832122263</v>
+        <v>0.03889081237998862</v>
       </c>
       <c r="D76">
-        <v>-0.03545408343788006</v>
+        <v>-0.03488317515941836</v>
       </c>
       <c r="E76">
-        <v>-0.0508986556689462</v>
+        <v>-0.1514622719600826</v>
       </c>
       <c r="F76">
-        <v>0.1330564759069017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1960585863006101</v>
+      </c>
+      <c r="G76">
+        <v>-0.0340827167931869</v>
+      </c>
+      <c r="H76">
+        <v>-0.07322481891617524</v>
+      </c>
+      <c r="I76">
+        <v>-0.02908429249658258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1431760155771299</v>
+        <v>-0.1028983758557322</v>
       </c>
       <c r="C77">
-        <v>-0.04546742723594951</v>
+        <v>0.07774504214971156</v>
       </c>
       <c r="D77">
-        <v>-0.087029518873219</v>
+        <v>-0.04093569536920198</v>
       </c>
       <c r="E77">
-        <v>-0.02209706421508149</v>
+        <v>0.03468805702246678</v>
       </c>
       <c r="F77">
-        <v>-0.2147786267212013</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1685790296264018</v>
+      </c>
+      <c r="G77">
+        <v>-0.2317297131090059</v>
+      </c>
+      <c r="H77">
+        <v>-0.01194964704722547</v>
+      </c>
+      <c r="I77">
+        <v>-0.2541457741332579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08176187138663908</v>
+        <v>-0.06091730860127771</v>
       </c>
       <c r="C78">
-        <v>-0.02264398225450959</v>
+        <v>0.06030814409055052</v>
       </c>
       <c r="D78">
-        <v>-0.08991325700920536</v>
+        <v>-0.04032198456601314</v>
       </c>
       <c r="E78">
-        <v>-0.04596292796435787</v>
+        <v>-0.02586666174848479</v>
       </c>
       <c r="F78">
-        <v>-0.03762704759238798</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07195638364754439</v>
+      </c>
+      <c r="G78">
+        <v>-0.03083308849865478</v>
+      </c>
+      <c r="H78">
+        <v>0.03073570966153922</v>
+      </c>
+      <c r="I78">
+        <v>-0.04435383699471737</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1258658189633942</v>
+        <v>-0.1477300657930876</v>
       </c>
       <c r="C80">
-        <v>-0.1206170236423426</v>
+        <v>-0.5374660797968742</v>
       </c>
       <c r="D80">
-        <v>0.42324630562467</v>
+        <v>-0.8137835927689626</v>
       </c>
       <c r="E80">
-        <v>-0.8670677292119071</v>
+        <v>0.02347848747874173</v>
       </c>
       <c r="F80">
-        <v>-0.02363273543013396</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.06597578789913418</v>
+      </c>
+      <c r="G80">
+        <v>0.05209570419717661</v>
+      </c>
+      <c r="H80">
+        <v>0.03348051234898158</v>
+      </c>
+      <c r="I80">
+        <v>0.08778211020708429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1665104159963202</v>
+        <v>-0.1809279643482441</v>
       </c>
       <c r="C81">
-        <v>0.05963227710146652</v>
+        <v>0.03576954596253883</v>
       </c>
       <c r="D81">
-        <v>-0.03646937299605801</v>
+        <v>-0.01497842973628582</v>
       </c>
       <c r="E81">
-        <v>-0.01179646157146164</v>
+        <v>-0.104210603125357</v>
       </c>
       <c r="F81">
-        <v>0.1523587151038334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1466034548652417</v>
+      </c>
+      <c r="G81">
+        <v>-0.0465533969770106</v>
+      </c>
+      <c r="H81">
+        <v>-0.0323772455264012</v>
+      </c>
+      <c r="I81">
+        <v>-0.004875323833170905</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06119096860534542</v>
+        <v>-0.04892856861927843</v>
       </c>
       <c r="C83">
-        <v>-0.05222149501161924</v>
+        <v>0.05085781234568332</v>
       </c>
       <c r="D83">
-        <v>-0.07357986269594533</v>
+        <v>-0.01909110892803492</v>
       </c>
       <c r="E83">
-        <v>-0.004876800388720209</v>
+        <v>0.01859458686052353</v>
       </c>
       <c r="F83">
-        <v>-0.02013890699249271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.0432254072565507</v>
+      </c>
+      <c r="G83">
+        <v>-0.02498537573815104</v>
+      </c>
+      <c r="H83">
+        <v>0.04487197540950148</v>
+      </c>
+      <c r="I83">
+        <v>-0.03901436013393168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2319483712842091</v>
+        <v>-0.2382662299563754</v>
       </c>
       <c r="C85">
-        <v>0.04303850356080594</v>
+        <v>0.08351054597359338</v>
       </c>
       <c r="D85">
-        <v>-0.067963402117904</v>
+        <v>-0.03596862903509092</v>
       </c>
       <c r="E85">
-        <v>-0.04260916539600864</v>
+        <v>-0.1144219546814904</v>
       </c>
       <c r="F85">
-        <v>0.1666393098241792</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1879261098175244</v>
+      </c>
+      <c r="G85">
+        <v>-0.04048387970031648</v>
+      </c>
+      <c r="H85">
+        <v>-0.0150494519512655</v>
+      </c>
+      <c r="I85">
+        <v>-0.02551185473985813</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02216741640091839</v>
+        <v>-0.01951942731145782</v>
       </c>
       <c r="C86">
-        <v>-0.007502343729275223</v>
+        <v>0.03539926432733553</v>
       </c>
       <c r="D86">
-        <v>-0.06523799567754444</v>
+        <v>-0.01754313199053173</v>
       </c>
       <c r="E86">
-        <v>-0.01574438262285853</v>
+        <v>-0.01499280121209462</v>
       </c>
       <c r="F86">
-        <v>-0.08912008410772544</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08801717174227094</v>
+      </c>
+      <c r="G86">
+        <v>-0.05934322501093726</v>
+      </c>
+      <c r="H86">
+        <v>0.01469699194646299</v>
+      </c>
+      <c r="I86">
+        <v>-0.07438613386880688</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01320882264106644</v>
+        <v>-0.02396222757625712</v>
       </c>
       <c r="C87">
-        <v>0.02188087658104455</v>
+        <v>-0.008769551561945104</v>
       </c>
       <c r="D87">
-        <v>0.04118473592879916</v>
+        <v>0.002192133970264776</v>
       </c>
       <c r="E87">
-        <v>0.017595919114634</v>
+        <v>0.005742761085302796</v>
       </c>
       <c r="F87">
-        <v>-0.104765862761778</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1073370462041314</v>
+      </c>
+      <c r="G87">
+        <v>-0.0105137433304067</v>
+      </c>
+      <c r="H87">
+        <v>-0.01067995916001055</v>
+      </c>
+      <c r="I87">
+        <v>-0.06017482262963838</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.01733651156468894</v>
+        <v>-0.03211255823539446</v>
       </c>
       <c r="C88">
-        <v>0.009056213808822827</v>
+        <v>-0.00795914562303566</v>
       </c>
       <c r="D88">
-        <v>0.006174303970720215</v>
+        <v>0.0005809035420393248</v>
       </c>
       <c r="E88">
-        <v>-0.01862693031836114</v>
+        <v>-0.006908076286767762</v>
       </c>
       <c r="F88">
-        <v>0.005117895152787114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.003931840759385851</v>
+      </c>
+      <c r="G88">
+        <v>0.0008305467040341741</v>
+      </c>
+      <c r="H88">
+        <v>0.05634915593763364</v>
+      </c>
+      <c r="I88">
+        <v>-0.009434022336473339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.1124097091519602</v>
+        <v>-0.1494204754622019</v>
       </c>
       <c r="C89">
-        <v>0.1080230576179757</v>
+        <v>-0.2878252550942518</v>
       </c>
       <c r="D89">
-        <v>0.2857957805916834</v>
+        <v>0.2374118718476484</v>
       </c>
       <c r="E89">
-        <v>0.1699372578216673</v>
+        <v>0.1034089946709072</v>
       </c>
       <c r="F89">
-        <v>-0.04628203823670925</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02422912267729804</v>
+      </c>
+      <c r="G89">
+        <v>-0.0957958614696596</v>
+      </c>
+      <c r="H89">
+        <v>0.02677108575156601</v>
+      </c>
+      <c r="I89">
+        <v>-0.0423608075645842</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.09074036801799226</v>
+        <v>-0.1039417804609003</v>
       </c>
       <c r="C90">
-        <v>0.1003962105885101</v>
+        <v>-0.2562069764415243</v>
       </c>
       <c r="D90">
-        <v>0.2725205841820887</v>
+        <v>0.1872279298170179</v>
       </c>
       <c r="E90">
-        <v>0.1024782716642012</v>
+        <v>0.08888352551670675</v>
       </c>
       <c r="F90">
-        <v>-0.04857434094071086</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.004267808995112474</v>
+      </c>
+      <c r="G90">
+        <v>-0.0805987881691418</v>
+      </c>
+      <c r="H90">
+        <v>0.01269808191815128</v>
+      </c>
+      <c r="I90">
+        <v>-0.003948210597517106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2905264225572317</v>
+        <v>-0.2820647850071977</v>
       </c>
       <c r="C91">
-        <v>0.05484173308513099</v>
+        <v>0.09432163513726263</v>
       </c>
       <c r="D91">
-        <v>-0.08797238062688487</v>
+        <v>-0.03641625561554528</v>
       </c>
       <c r="E91">
-        <v>-0.03586717095624437</v>
+        <v>-0.121284134590555</v>
       </c>
       <c r="F91">
-        <v>0.2451870858510984</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2584793730059211</v>
+      </c>
+      <c r="G91">
+        <v>-0.05650982066304188</v>
+      </c>
+      <c r="H91">
+        <v>-0.05770906185998514</v>
+      </c>
+      <c r="I91">
+        <v>-0.02412852687035478</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1239859209935312</v>
+        <v>-0.18584773259865</v>
       </c>
       <c r="C92">
-        <v>0.05289686769499941</v>
+        <v>-0.2747989294938001</v>
       </c>
       <c r="D92">
-        <v>0.3319737592253159</v>
+        <v>0.1797440300811883</v>
       </c>
       <c r="E92">
-        <v>0.1141222272612221</v>
+        <v>0.1252197796452806</v>
       </c>
       <c r="F92">
-        <v>0.01845215152903979</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.09295384122896906</v>
+      </c>
+      <c r="G92">
+        <v>-0.2184683945848456</v>
+      </c>
+      <c r="H92">
+        <v>0.05832087883199762</v>
+      </c>
+      <c r="I92">
+        <v>0.01516204456548905</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.09382729135425534</v>
+        <v>-0.1309590200614743</v>
       </c>
       <c r="C93">
-        <v>0.1043600096987254</v>
+        <v>-0.3015253383652514</v>
       </c>
       <c r="D93">
-        <v>0.3377366826092446</v>
+        <v>0.2322701339518513</v>
       </c>
       <c r="E93">
-        <v>0.1468674090446464</v>
+        <v>0.1351036608606602</v>
       </c>
       <c r="F93">
-        <v>0.02333390739987064</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.03387311685734944</v>
+      </c>
+      <c r="G93">
+        <v>-0.0209517500165452</v>
+      </c>
+      <c r="H93">
+        <v>0.04647711263459345</v>
+      </c>
+      <c r="I93">
+        <v>0.04061514373450633</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2754311977681813</v>
+        <v>-0.2998334527486413</v>
       </c>
       <c r="C94">
-        <v>0.0865282231014631</v>
+        <v>0.03806934595378618</v>
       </c>
       <c r="D94">
-        <v>0.02226934076378665</v>
+        <v>0.01921590058963984</v>
       </c>
       <c r="E94">
-        <v>0.008556006248997121</v>
+        <v>-0.1279019947322677</v>
       </c>
       <c r="F94">
-        <v>0.2064863938531496</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2709645137059666</v>
+      </c>
+      <c r="G94">
+        <v>-0.08828201069873645</v>
+      </c>
+      <c r="H94">
+        <v>-0.2051163650482718</v>
+      </c>
+      <c r="I94">
+        <v>-0.0229363280784556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1557320456341066</v>
+        <v>-0.1275779347288723</v>
       </c>
       <c r="C95">
-        <v>-0.02041709174571343</v>
+        <v>0.1188054826822548</v>
       </c>
       <c r="D95">
-        <v>-0.1832040982800873</v>
+        <v>0.02528728872384716</v>
       </c>
       <c r="E95">
-        <v>0.001228245252859553</v>
+        <v>-0.03792157130386865</v>
       </c>
       <c r="F95">
-        <v>0.4878589060513464</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.07422860567945574</v>
+      </c>
+      <c r="G95">
+        <v>0.06679874507998726</v>
+      </c>
+      <c r="H95">
+        <v>0.8863910144880329</v>
+      </c>
+      <c r="I95">
+        <v>0.3042760515955386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2200837856423098</v>
+        <v>-0.2234768793632864</v>
       </c>
       <c r="C98">
-        <v>0.03350113495576121</v>
+        <v>0.01503813072175253</v>
       </c>
       <c r="D98">
-        <v>0.01381422085260486</v>
+        <v>0.07075438132477099</v>
       </c>
       <c r="E98">
-        <v>0.08964404490293229</v>
+        <v>0.02151105376525864</v>
       </c>
       <c r="F98">
-        <v>-0.06965926784638039</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.184008939783833</v>
+      </c>
+      <c r="G98">
+        <v>0.3847737391374548</v>
+      </c>
+      <c r="H98">
+        <v>-0.05213799015075694</v>
+      </c>
+      <c r="I98">
+        <v>0.03660452734319693</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.003440000678977715</v>
+        <v>-0.01365811832110511</v>
       </c>
       <c r="C101">
-        <v>0.02223505920121864</v>
+        <v>0.02124568801714804</v>
       </c>
       <c r="D101">
-        <v>-0.06572692622318646</v>
+        <v>-0.01665297931334769</v>
       </c>
       <c r="E101">
-        <v>-0.03980315565869277</v>
+        <v>-0.0393047115488535</v>
       </c>
       <c r="F101">
-        <v>-0.02440053679136426</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.07918810666262244</v>
+      </c>
+      <c r="G101">
+        <v>-0.1115147010899153</v>
+      </c>
+      <c r="H101">
+        <v>0.00189672930153034</v>
+      </c>
+      <c r="I101">
+        <v>0.1168138778322538</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09663337836188536</v>
+        <v>-0.113728482247531</v>
       </c>
       <c r="C102">
-        <v>0.02617850607885954</v>
+        <v>0.03465440074288258</v>
       </c>
       <c r="D102">
-        <v>-0.04535129684678041</v>
+        <v>-0.02298985489469854</v>
       </c>
       <c r="E102">
-        <v>-0.03728628019133345</v>
+        <v>-0.06048469623992362</v>
       </c>
       <c r="F102">
-        <v>0.09419392286000791</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1099315902845481</v>
+      </c>
+      <c r="G102">
+        <v>-0.01914866614304485</v>
+      </c>
+      <c r="H102">
+        <v>-0.00831012834055306</v>
+      </c>
+      <c r="I102">
+        <v>-0.02367816184188421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02124703663123329</v>
+        <v>-0.02763750189898133</v>
       </c>
       <c r="C103">
-        <v>0.01042365800563398</v>
+        <v>0.004386225598687263</v>
       </c>
       <c r="D103">
-        <v>-0.007319799468929994</v>
+        <v>-0.01186258152340395</v>
       </c>
       <c r="E103">
-        <v>-0.007100845157111963</v>
+        <v>-0.01986602301355695</v>
       </c>
       <c r="F103">
-        <v>0.02117842282657406</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01759324171475169</v>
+      </c>
+      <c r="G103">
+        <v>-0.01780179896081256</v>
+      </c>
+      <c r="H103">
+        <v>0.009522112328216556</v>
+      </c>
+      <c r="I103">
+        <v>-0.01646525390343002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
